--- a/Documentação/negócio/Product Backlog.xlsx
+++ b/Documentação/negócio/Product Backlog.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilgner.silva\Desktop\Sprint 2\GRUPO-10-2ADSA\Documentação\negócio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB474348-9005-40A8-96CD-97AF2935748E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="5925" tabRatio="885"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
     <sheet name="Dados" sheetId="14" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alexander Barreira</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>João</t>
   </si>
@@ -315,12 +306,27 @@
   </si>
   <si>
     <t>O sistema devera monitorar as maquinas de todos os estabelecimento</t>
+  </si>
+  <si>
+    <t>US#13 &lt;Chamado&gt;</t>
+  </si>
+  <si>
+    <t>O sistema dever ter uma abertura de chamado</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>US#14 &lt;graficos com médias&gt;</t>
+  </si>
+  <si>
+    <t>A aplicação deve conter graficos com médias da CPU, RAM e disco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -491,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -584,6 +590,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -609,7 +712,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -667,9 +770,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -754,6 +854,33 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1650,553 +1777,565 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="23.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="78.85546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="0.7109375" style="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="14" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="14"/>
-    <col min="11" max="11" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="14"/>
+    <col min="3" max="3" width="42.7265625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="78.81640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="0.7265625" style="16" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="14" customWidth="1"/>
+    <col min="9" max="10" width="8.81640625" style="14"/>
+    <col min="11" max="11" width="13.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:11" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
-    </row>
-    <row r="3" spans="2:11" ht="9.9499999999999993" customHeight="1" thickBot="1"/>
-    <row r="4" spans="2:11" s="23" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B4" s="18" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" spans="2:11" ht="10" customHeight="1" thickBot="1"/>
+    <row r="4" spans="2:11" s="22" customFormat="1" ht="25" customHeight="1" thickBot="1">
+      <c r="B4" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B5" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="25" t="s">
+    <row r="5" spans="2:11" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B5" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="25" t="s">
+    <row r="6" spans="2:11" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B6" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="2:11" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B7" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B8" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="2:11" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B8" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="2:11" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B9" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="2:11" s="27" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B9" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B10" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="2:11" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B10" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="27" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-    </row>
-    <row r="11" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B11" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="25" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="2:11" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B11" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="2:11" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B12" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B13" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="2:11" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B13" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="2:11" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B14" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="2:11" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B15" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="2:11" s="27" customFormat="1" ht="15" thickBot="1">
+      <c r="B15" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="27" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:11" s="28" customFormat="1" ht="30.75" thickBot="1">
-      <c r="B16" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="25" t="s">
+    <row r="16" spans="2:11" s="27" customFormat="1" ht="29.5" thickBot="1">
+      <c r="B16" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="27"/>
-    </row>
-    <row r="17" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B18" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B19" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B20" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B21" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-    </row>
-    <row r="22" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B22" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B23" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B24" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B25" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B26" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B27" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B28" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B29" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B30" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B31" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B32" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B33" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B34" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-    </row>
-    <row r="35" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C35" s="35"/>
-      <c r="E35" s="36"/>
-      <c r="G35" s="37"/>
-    </row>
-    <row r="36" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C36" s="35"/>
-      <c r="E36" s="36"/>
-      <c r="G36" s="37"/>
-    </row>
-    <row r="37" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C37" s="35"/>
-      <c r="E37" s="36"/>
-      <c r="G37" s="37"/>
-    </row>
-    <row r="38" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C38" s="35"/>
-      <c r="E38" s="36"/>
-      <c r="G38" s="37"/>
-    </row>
-    <row r="39" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C39" s="35"/>
-      <c r="E39" s="36"/>
-      <c r="G39" s="37"/>
-    </row>
-    <row r="40" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C40" s="35"/>
-      <c r="E40" s="36"/>
-      <c r="G40" s="37"/>
-    </row>
-    <row r="41" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C41" s="35"/>
-      <c r="E41" s="36"/>
-      <c r="G41" s="37"/>
-    </row>
-    <row r="42" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C42" s="35"/>
-      <c r="E42" s="36"/>
-      <c r="G42" s="37"/>
-    </row>
-    <row r="43" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C43" s="35"/>
-      <c r="E43" s="36"/>
-      <c r="G43" s="37"/>
-    </row>
-    <row r="44" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C44" s="35"/>
-      <c r="E44" s="36"/>
-      <c r="G44" s="37"/>
-    </row>
-    <row r="45" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C45" s="35"/>
-      <c r="E45" s="36"/>
-      <c r="G45" s="37"/>
-    </row>
-    <row r="46" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C46" s="35"/>
-      <c r="E46" s="36"/>
-      <c r="G46" s="37"/>
-    </row>
-    <row r="47" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C47" s="35"/>
-      <c r="E47" s="36"/>
-      <c r="G47" s="37"/>
-    </row>
-    <row r="48" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C48" s="35"/>
-      <c r="E48" s="36"/>
-      <c r="G48" s="37"/>
-    </row>
-    <row r="49" spans="3:7" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C49" s="35"/>
-      <c r="E49" s="36"/>
-      <c r="G49" s="37"/>
-    </row>
-    <row r="50" spans="3:7" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C50" s="35"/>
-      <c r="E50" s="36"/>
-      <c r="G50" s="37"/>
-    </row>
-    <row r="51" spans="3:7" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C51" s="35"/>
-      <c r="E51" s="36"/>
-      <c r="G51" s="37"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B17" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B18" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B19" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B20" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B24" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B25" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B26" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B27" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B28" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B29" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B30" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B31" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B32" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B33" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+      <c r="B34" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="G39" s="36"/>
+    </row>
+    <row r="40" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="G42" s="36"/>
+    </row>
+    <row r="43" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="G43" s="36"/>
+    </row>
+    <row r="44" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="G45" s="36"/>
+    </row>
+    <row r="46" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C46" s="34"/>
+      <c r="E46" s="35"/>
+      <c r="G46" s="36"/>
+    </row>
+    <row r="47" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C47" s="34"/>
+      <c r="E47" s="35"/>
+      <c r="G47" s="36"/>
+    </row>
+    <row r="48" spans="2:8" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="G48" s="36"/>
+    </row>
+    <row r="49" spans="3:7" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="G49" s="36"/>
+    </row>
+    <row r="50" spans="3:7" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="G50" s="36"/>
+    </row>
+    <row r="51" spans="3:7" s="27" customFormat="1" ht="23.15" customHeight="1">
+      <c r="C51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="G51" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2277,7 +2416,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C4" location="Dados!A1" display="Artefato de Referência (XX#R)"/>
+    <hyperlink ref="C4" location="Dados!A1" display="Artefato de Referência (XX#R)" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2286,13 +2425,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Dados!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B5:B34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Dados!$A$14:$A$14</xm:f>
           </x14:formula1>
@@ -2305,19 +2444,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="52.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1">
@@ -2422,7 +2561,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="23.25">
+    <row r="17" spans="1:2" ht="23.5">
       <c r="A17" s="11" t="s">
         <v>27</v>
       </c>
@@ -2430,7 +2569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="23.25">
+    <row r="18" spans="1:2" ht="23.5">
       <c r="A18" s="11" t="s">
         <v>28</v>
       </c>
@@ -2438,7 +2577,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="23.25">
+    <row r="19" spans="1:2" ht="23.5">
       <c r="A19" s="11" t="s">
         <v>29</v>
       </c>
@@ -2446,7 +2585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="23.25">
+    <row r="20" spans="1:2" ht="23.5">
       <c r="A20" s="11" t="s">
         <v>30</v>
       </c>
@@ -2454,7 +2593,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="23.25">
+    <row r="21" spans="1:2" ht="23.5">
       <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
@@ -2462,7 +2601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="23.25">
+    <row r="22" spans="1:2" ht="23.5">
       <c r="A22" s="11" t="s">
         <v>32</v>
       </c>
@@ -2470,7 +2609,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="23.25">
+    <row r="23" spans="1:2" ht="23.5">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
@@ -2478,7 +2617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="23.25">
+    <row r="24" spans="1:2" ht="23.5">
       <c r="A24" s="11" t="s">
         <v>34</v>
       </c>
@@ -2486,7 +2625,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="23.25">
+    <row r="25" spans="1:2" ht="23.5">
       <c r="A25" s="11" t="s">
         <v>35</v>
       </c>
@@ -2494,7 +2633,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="23.25">
+    <row r="26" spans="1:2" ht="23.5">
       <c r="A26" s="11" t="s">
         <v>45</v>
       </c>
@@ -2502,7 +2641,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="23.25">
+    <row r="27" spans="1:2" ht="23.5">
       <c r="A27" s="11" t="s">
         <v>49</v>
       </c>
